--- a/code/station-names.xlsx
+++ b/code/station-names.xlsx
@@ -28,7 +28,7 @@
     <t>EN</t>
   </si>
   <si>
-    <t>El Cerrito Del Norte</t>
+    <t>El Cerrito del Norte</t>
   </si>
   <si>
     <t>EP</t>
@@ -46,7 +46,7 @@
     <t>BK</t>
   </si>
   <si>
-    <t>Berkeley</t>
+    <t>Downtown Berkeley</t>
   </si>
   <si>
     <t>AS</t>
@@ -61,10 +61,10 @@
     <t>MacArthur</t>
   </si>
   <si>
-    <t>19th Street Oakland</t>
-  </si>
-  <si>
-    <t>12th Street / Oakland City Center</t>
+    <t>19th Street</t>
+  </si>
+  <si>
+    <t>12th Street</t>
   </si>
   <si>
     <t>LM</t>
@@ -94,7 +94,7 @@
     <t>BF</t>
   </si>
   <si>
-    <t>Bayfair</t>
+    <t>Bay Fair</t>
   </si>
   <si>
     <t>HY</t>
@@ -226,7 +226,7 @@
     <t>ED</t>
   </si>
   <si>
-    <t>Dublin/Pleasanton</t>
+    <t>Dublin</t>
   </si>
   <si>
     <t>NC</t>
@@ -238,7 +238,7 @@
     <t>WP</t>
   </si>
   <si>
-    <t>Pittsburg/Bay Point</t>
+    <t>Pittsburg</t>
   </si>
   <si>
     <t>SS</t>
@@ -256,7 +256,7 @@
     <t>SO</t>
   </si>
   <si>
-    <t>San Francisco International Airport</t>
+    <t>SFO</t>
   </si>
   <si>
     <t>MB</t>
@@ -268,13 +268,13 @@
     <t>WD</t>
   </si>
   <si>
-    <t>West Dublin/Pleasanton</t>
+    <t>West Dublin</t>
   </si>
   <si>
     <t>OA</t>
   </si>
   <si>
-    <t>Oakland International Airport</t>
+    <t>OAK</t>
   </si>
   <si>
     <t>WS</t>
@@ -304,7 +304,7 @@
     <t>BE</t>
   </si>
   <si>
-    <t>Berryessa / North San José</t>
+    <t>Berryessa</t>
   </si>
 </sst>
 </file>
@@ -564,13 +564,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -659,19 +653,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -917,13 +911,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1216,19 +1204,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
